--- a/pima.xlsx
+++ b/pima.xlsx
@@ -505,10 +505,8 @@
       <c r="H2" t="n">
         <v>50</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +534,8 @@
       <c r="H3" t="n">
         <v>31</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -567,10 +563,8 @@
       <c r="H4" t="n">
         <v>32</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -598,10 +592,8 @@
       <c r="H5" t="n">
         <v>21</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -629,10 +621,8 @@
       <c r="H6" t="n">
         <v>33</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,10 +650,8 @@
       <c r="H7" t="n">
         <v>30</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -691,10 +679,8 @@
       <c r="H8" t="n">
         <v>26</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -722,10 +708,8 @@
       <c r="H9" t="n">
         <v>29</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -753,10 +737,8 @@
       <c r="H10" t="n">
         <v>53</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -784,10 +766,8 @@
       <c r="H11" t="n">
         <v>54</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -815,10 +795,8 @@
       <c r="H12" t="n">
         <v>30</v>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -846,10 +824,8 @@
       <c r="H13" t="n">
         <v>34</v>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -877,10 +853,8 @@
       <c r="H14" t="n">
         <v>57</v>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -908,10 +882,8 @@
       <c r="H15" t="n">
         <v>59</v>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -939,10 +911,8 @@
       <c r="H16" t="n">
         <v>51</v>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -970,10 +940,8 @@
       <c r="H17" t="n">
         <v>32</v>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1001,10 +969,8 @@
       <c r="H18" t="n">
         <v>31</v>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1032,10 +998,8 @@
       <c r="H19" t="n">
         <v>31</v>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1063,10 +1027,8 @@
       <c r="H20" t="n">
         <v>33</v>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1094,10 +1056,8 @@
       <c r="H21" t="n">
         <v>32</v>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1125,10 +1085,8 @@
       <c r="H22" t="n">
         <v>27</v>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1156,10 +1114,8 @@
       <c r="H23" t="n">
         <v>50</v>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1187,10 +1143,8 @@
       <c r="H24" t="n">
         <v>41</v>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1218,10 +1172,8 @@
       <c r="H25" t="n">
         <v>29</v>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1249,10 +1201,8 @@
       <c r="H26" t="n">
         <v>51</v>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1280,10 +1230,8 @@
       <c r="H27" t="n">
         <v>41</v>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1311,10 +1259,8 @@
       <c r="H28" t="n">
         <v>43</v>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1342,10 +1288,8 @@
       <c r="H29" t="n">
         <v>22</v>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1373,10 +1317,8 @@
       <c r="H30" t="n">
         <v>57</v>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1404,10 +1346,8 @@
       <c r="H31" t="n">
         <v>38</v>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1435,10 +1375,8 @@
       <c r="H32" t="n">
         <v>60</v>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1466,10 +1404,8 @@
       <c r="H33" t="n">
         <v>28</v>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1497,10 +1433,8 @@
       <c r="H34" t="n">
         <v>22</v>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1528,10 +1462,8 @@
       <c r="H35" t="n">
         <v>28</v>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1559,10 +1491,8 @@
       <c r="H36" t="n">
         <v>45</v>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1590,10 +1520,8 @@
       <c r="H37" t="n">
         <v>33</v>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1621,10 +1549,8 @@
       <c r="H38" t="n">
         <v>35</v>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1652,10 +1578,8 @@
       <c r="H39" t="n">
         <v>46</v>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1683,10 +1607,8 @@
       <c r="H40" t="n">
         <v>27</v>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1714,10 +1636,8 @@
       <c r="H41" t="n">
         <v>56</v>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1745,10 +1665,8 @@
       <c r="H42" t="n">
         <v>26</v>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1776,10 +1694,8 @@
       <c r="H43" t="n">
         <v>37</v>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1807,10 +1723,8 @@
       <c r="H44" t="n">
         <v>48</v>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1838,10 +1752,8 @@
       <c r="H45" t="n">
         <v>54</v>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1869,10 +1781,8 @@
       <c r="H46" t="n">
         <v>40</v>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1900,10 +1810,8 @@
       <c r="H47" t="n">
         <v>25</v>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1931,10 +1839,8 @@
       <c r="H48" t="n">
         <v>29</v>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1962,10 +1868,8 @@
       <c r="H49" t="n">
         <v>22</v>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1993,10 +1897,8 @@
       <c r="H50" t="n">
         <v>31</v>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2024,10 +1926,8 @@
       <c r="H51" t="n">
         <v>24</v>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2055,10 +1955,8 @@
       <c r="H52" t="n">
         <v>22</v>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2086,10 +1984,8 @@
       <c r="H53" t="n">
         <v>26</v>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2117,10 +2013,8 @@
       <c r="H54" t="n">
         <v>30</v>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2148,10 +2042,8 @@
       <c r="H55" t="n">
         <v>58</v>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I55" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2179,10 +2071,8 @@
       <c r="H56" t="n">
         <v>42</v>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2210,10 +2100,8 @@
       <c r="H57" t="n">
         <v>21</v>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2241,10 +2129,8 @@
       <c r="H58" t="n">
         <v>41</v>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I58" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2272,10 +2158,8 @@
       <c r="H59" t="n">
         <v>31</v>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2303,10 +2187,8 @@
       <c r="H60" t="n">
         <v>44</v>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2334,10 +2216,8 @@
       <c r="H61" t="n">
         <v>22</v>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2365,10 +2245,8 @@
       <c r="H62" t="n">
         <v>21</v>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2396,10 +2274,8 @@
       <c r="H63" t="n">
         <v>39</v>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I63" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2427,10 +2303,8 @@
       <c r="H64" t="n">
         <v>36</v>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2458,10 +2332,8 @@
       <c r="H65" t="n">
         <v>24</v>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2489,10 +2361,8 @@
       <c r="H66" t="n">
         <v>42</v>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2520,10 +2390,8 @@
       <c r="H67" t="n">
         <v>32</v>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2551,10 +2419,8 @@
       <c r="H68" t="n">
         <v>38</v>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I68" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2582,10 +2448,8 @@
       <c r="H69" t="n">
         <v>54</v>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2613,10 +2477,8 @@
       <c r="H70" t="n">
         <v>25</v>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2644,10 +2506,8 @@
       <c r="H71" t="n">
         <v>27</v>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2675,10 +2535,8 @@
       <c r="H72" t="n">
         <v>28</v>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I72" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2706,10 +2564,8 @@
       <c r="H73" t="n">
         <v>26</v>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2737,10 +2593,8 @@
       <c r="H74" t="n">
         <v>42</v>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2768,10 +2622,8 @@
       <c r="H75" t="n">
         <v>23</v>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2799,10 +2651,8 @@
       <c r="H76" t="n">
         <v>22</v>
       </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2830,10 +2680,8 @@
       <c r="H77" t="n">
         <v>22</v>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2861,10 +2709,8 @@
       <c r="H78" t="n">
         <v>41</v>
       </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2892,10 +2738,8 @@
       <c r="H79" t="n">
         <v>27</v>
       </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2923,10 +2767,8 @@
       <c r="H80" t="n">
         <v>26</v>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I80" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2954,10 +2796,8 @@
       <c r="H81" t="n">
         <v>24</v>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2985,10 +2825,8 @@
       <c r="H82" t="n">
         <v>22</v>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3016,10 +2854,8 @@
       <c r="H83" t="n">
         <v>22</v>
       </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -3047,10 +2883,8 @@
       <c r="H84" t="n">
         <v>36</v>
       </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3078,10 +2912,8 @@
       <c r="H85" t="n">
         <v>22</v>
       </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3109,10 +2941,8 @@
       <c r="H86" t="n">
         <v>37</v>
       </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I86" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3140,10 +2970,8 @@
       <c r="H87" t="n">
         <v>27</v>
       </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3171,10 +2999,8 @@
       <c r="H88" t="n">
         <v>45</v>
       </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3202,10 +3028,8 @@
       <c r="H89" t="n">
         <v>26</v>
       </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3233,10 +3057,8 @@
       <c r="H90" t="n">
         <v>43</v>
       </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I90" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3264,10 +3086,8 @@
       <c r="H91" t="n">
         <v>24</v>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3295,10 +3115,8 @@
       <c r="H92" t="n">
         <v>21</v>
       </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3326,10 +3144,8 @@
       <c r="H93" t="n">
         <v>34</v>
       </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3357,10 +3173,8 @@
       <c r="H94" t="n">
         <v>42</v>
       </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3388,10 +3202,8 @@
       <c r="H95" t="n">
         <v>60</v>
       </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I95" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3419,10 +3231,8 @@
       <c r="H96" t="n">
         <v>21</v>
       </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3450,10 +3260,8 @@
       <c r="H97" t="n">
         <v>40</v>
       </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3481,10 +3289,8 @@
       <c r="H98" t="n">
         <v>24</v>
       </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3512,10 +3318,8 @@
       <c r="H99" t="n">
         <v>22</v>
       </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I99" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3543,10 +3347,8 @@
       <c r="H100" t="n">
         <v>23</v>
       </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3574,10 +3376,8 @@
       <c r="H101" t="n">
         <v>31</v>
       </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I101" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -3605,10 +3405,8 @@
       <c r="H102" t="n">
         <v>33</v>
       </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I102" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3636,10 +3434,8 @@
       <c r="H103" t="n">
         <v>22</v>
       </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I103" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -3667,10 +3463,8 @@
       <c r="H104" t="n">
         <v>21</v>
       </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I104" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -3698,10 +3492,8 @@
       <c r="H105" t="n">
         <v>24</v>
       </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I105" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -3729,10 +3521,8 @@
       <c r="H106" t="n">
         <v>27</v>
       </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I106" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -3760,10 +3550,8 @@
       <c r="H107" t="n">
         <v>21</v>
       </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I107" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -3791,10 +3579,8 @@
       <c r="H108" t="n">
         <v>27</v>
       </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I108" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -3822,10 +3608,8 @@
       <c r="H109" t="n">
         <v>37</v>
       </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I109" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -3853,10 +3637,8 @@
       <c r="H110" t="n">
         <v>25</v>
       </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I110" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -3884,10 +3666,8 @@
       <c r="H111" t="n">
         <v>24</v>
       </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I111" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -3915,10 +3695,8 @@
       <c r="H112" t="n">
         <v>24</v>
       </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I112" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -3946,10 +3724,8 @@
       <c r="H113" t="n">
         <v>46</v>
       </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I113" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -3977,10 +3753,8 @@
       <c r="H114" t="n">
         <v>23</v>
       </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I114" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -4008,10 +3782,8 @@
       <c r="H115" t="n">
         <v>25</v>
       </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I115" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -4039,10 +3811,8 @@
       <c r="H116" t="n">
         <v>39</v>
       </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I116" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -4070,10 +3840,8 @@
       <c r="H117" t="n">
         <v>61</v>
       </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I117" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -4101,10 +3869,8 @@
       <c r="H118" t="n">
         <v>38</v>
       </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I118" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -4132,10 +3898,8 @@
       <c r="H119" t="n">
         <v>25</v>
       </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I119" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -4163,10 +3927,8 @@
       <c r="H120" t="n">
         <v>22</v>
       </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I120" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -4194,10 +3956,8 @@
       <c r="H121" t="n">
         <v>21</v>
       </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I121" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -4225,10 +3985,8 @@
       <c r="H122" t="n">
         <v>25</v>
       </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I122" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -4256,10 +4014,8 @@
       <c r="H123" t="n">
         <v>24</v>
       </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I123" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -4287,10 +4043,8 @@
       <c r="H124" t="n">
         <v>23</v>
       </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I124" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -4318,10 +4072,8 @@
       <c r="H125" t="n">
         <v>69</v>
       </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I125" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -4349,10 +4101,8 @@
       <c r="H126" t="n">
         <v>23</v>
       </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I126" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -4380,10 +4130,8 @@
       <c r="H127" t="n">
         <v>26</v>
       </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I127" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -4411,10 +4159,8 @@
       <c r="H128" t="n">
         <v>30</v>
       </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I128" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -4442,10 +4188,8 @@
       <c r="H129" t="n">
         <v>23</v>
       </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I129" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -4473,10 +4217,8 @@
       <c r="H130" t="n">
         <v>40</v>
       </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I130" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -4504,10 +4246,8 @@
       <c r="H131" t="n">
         <v>62</v>
       </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I131" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -4535,10 +4275,8 @@
       <c r="H132" t="n">
         <v>33</v>
       </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I132" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -4566,10 +4304,8 @@
       <c r="H133" t="n">
         <v>33</v>
       </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I133" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -4597,10 +4333,8 @@
       <c r="H134" t="n">
         <v>30</v>
       </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I134" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -4628,10 +4362,8 @@
       <c r="H135" t="n">
         <v>39</v>
       </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I135" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -4659,10 +4391,8 @@
       <c r="H136" t="n">
         <v>26</v>
       </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I136" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -4690,10 +4420,8 @@
       <c r="H137" t="n">
         <v>31</v>
       </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I137" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -4721,10 +4449,8 @@
       <c r="H138" t="n">
         <v>21</v>
       </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I138" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -4752,10 +4478,8 @@
       <c r="H139" t="n">
         <v>22</v>
       </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I139" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -4783,10 +4507,8 @@
       <c r="H140" t="n">
         <v>29</v>
       </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I140" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -4814,10 +4536,8 @@
       <c r="H141" t="n">
         <v>28</v>
       </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I141" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -4845,10 +4565,8 @@
       <c r="H142" t="n">
         <v>55</v>
       </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I142" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -4876,10 +4594,8 @@
       <c r="H143" t="n">
         <v>38</v>
       </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I143" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -4907,10 +4623,8 @@
       <c r="H144" t="n">
         <v>22</v>
       </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I144" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -4938,10 +4652,8 @@
       <c r="H145" t="n">
         <v>42</v>
       </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I145" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -4969,10 +4681,8 @@
       <c r="H146" t="n">
         <v>23</v>
       </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I146" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -5000,10 +4710,8 @@
       <c r="H147" t="n">
         <v>21</v>
       </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I147" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -5031,10 +4739,8 @@
       <c r="H148" t="n">
         <v>41</v>
       </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I148" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -5062,10 +4768,8 @@
       <c r="H149" t="n">
         <v>34</v>
       </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I149" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -5093,10 +4797,8 @@
       <c r="H150" t="n">
         <v>65</v>
       </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I150" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -5124,10 +4826,8 @@
       <c r="H151" t="n">
         <v>22</v>
       </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I151" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -5155,10 +4855,8 @@
       <c r="H152" t="n">
         <v>24</v>
       </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I152" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -5186,10 +4884,8 @@
       <c r="H153" t="n">
         <v>37</v>
       </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I153" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -5217,10 +4913,8 @@
       <c r="H154" t="n">
         <v>42</v>
       </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I154" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -5248,10 +4942,8 @@
       <c r="H155" t="n">
         <v>23</v>
       </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I155" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -5279,10 +4971,8 @@
       <c r="H156" t="n">
         <v>43</v>
       </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I156" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -5310,10 +5000,8 @@
       <c r="H157" t="n">
         <v>36</v>
       </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I157" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -5341,10 +5029,8 @@
       <c r="H158" t="n">
         <v>21</v>
       </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I158" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -5372,10 +5058,8 @@
       <c r="H159" t="n">
         <v>23</v>
       </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I159" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -5403,10 +5087,8 @@
       <c r="H160" t="n">
         <v>22</v>
       </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I160" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -5434,10 +5116,8 @@
       <c r="H161" t="n">
         <v>47</v>
       </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I161" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -5465,10 +5145,8 @@
       <c r="H162" t="n">
         <v>36</v>
       </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I162" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -5496,10 +5174,8 @@
       <c r="H163" t="n">
         <v>45</v>
       </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I163" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -5527,10 +5203,8 @@
       <c r="H164" t="n">
         <v>27</v>
       </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I164" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -5558,10 +5232,8 @@
       <c r="H165" t="n">
         <v>21</v>
       </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I165" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -5589,10 +5261,8 @@
       <c r="H166" t="n">
         <v>32</v>
       </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I166" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -5620,10 +5290,8 @@
       <c r="H167" t="n">
         <v>41</v>
       </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I167" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -5651,10 +5319,8 @@
       <c r="H168" t="n">
         <v>22</v>
       </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I168" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -5682,10 +5348,8 @@
       <c r="H169" t="n">
         <v>34</v>
       </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I169" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -5713,10 +5377,8 @@
       <c r="H170" t="n">
         <v>29</v>
       </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I170" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -5744,10 +5406,8 @@
       <c r="H171" t="n">
         <v>29</v>
       </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I171" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -5775,10 +5435,8 @@
       <c r="H172" t="n">
         <v>36</v>
       </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I172" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -5806,10 +5464,8 @@
       <c r="H173" t="n">
         <v>29</v>
       </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I173" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -5837,10 +5493,8 @@
       <c r="H174" t="n">
         <v>25</v>
       </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I174" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -5868,10 +5522,8 @@
       <c r="H175" t="n">
         <v>23</v>
       </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I175" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -5899,10 +5551,8 @@
       <c r="H176" t="n">
         <v>33</v>
       </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I176" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -5930,10 +5580,8 @@
       <c r="H177" t="n">
         <v>36</v>
       </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I177" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -5961,10 +5609,8 @@
       <c r="H178" t="n">
         <v>42</v>
       </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I178" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -5992,10 +5638,8 @@
       <c r="H179" t="n">
         <v>26</v>
       </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I179" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -6023,10 +5667,8 @@
       <c r="H180" t="n">
         <v>47</v>
       </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I180" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -6054,10 +5696,8 @@
       <c r="H181" t="n">
         <v>37</v>
       </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I181" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -6085,10 +5725,8 @@
       <c r="H182" t="n">
         <v>32</v>
       </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I182" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -6116,10 +5754,8 @@
       <c r="H183" t="n">
         <v>23</v>
       </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I183" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -6147,10 +5783,8 @@
       <c r="H184" t="n">
         <v>21</v>
       </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I184" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -6178,10 +5812,8 @@
       <c r="H185" t="n">
         <v>27</v>
       </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I185" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -6209,10 +5841,8 @@
       <c r="H186" t="n">
         <v>40</v>
       </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I186" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -6240,10 +5870,8 @@
       <c r="H187" t="n">
         <v>41</v>
       </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I187" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -6271,10 +5899,8 @@
       <c r="H188" t="n">
         <v>60</v>
       </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I188" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -6302,10 +5928,8 @@
       <c r="H189" t="n">
         <v>33</v>
       </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I189" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -6333,10 +5957,8 @@
       <c r="H190" t="n">
         <v>31</v>
       </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I190" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -6364,10 +5986,8 @@
       <c r="H191" t="n">
         <v>25</v>
       </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I191" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -6395,10 +6015,8 @@
       <c r="H192" t="n">
         <v>21</v>
       </c>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I192" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -6426,10 +6044,8 @@
       <c r="H193" t="n">
         <v>40</v>
       </c>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I193" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -6457,10 +6073,8 @@
       <c r="H194" t="n">
         <v>36</v>
       </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I194" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -6488,10 +6102,8 @@
       <c r="H195" t="n">
         <v>40</v>
       </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I195" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -6519,10 +6131,8 @@
       <c r="H196" t="n">
         <v>42</v>
       </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I196" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -6550,10 +6160,8 @@
       <c r="H197" t="n">
         <v>29</v>
       </c>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I197" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -6581,10 +6189,8 @@
       <c r="H198" t="n">
         <v>21</v>
       </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I198" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -6612,10 +6218,8 @@
       <c r="H199" t="n">
         <v>23</v>
       </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I199" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -6643,10 +6247,8 @@
       <c r="H200" t="n">
         <v>26</v>
       </c>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I200" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -6674,10 +6276,8 @@
       <c r="H201" t="n">
         <v>29</v>
       </c>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I201" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -6705,10 +6305,8 @@
       <c r="H202" t="n">
         <v>21</v>
       </c>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I202" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -6736,10 +6334,8 @@
       <c r="H203" t="n">
         <v>28</v>
       </c>
-      <c r="I203" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I203" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -6767,10 +6363,8 @@
       <c r="H204" t="n">
         <v>32</v>
       </c>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I204" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -6798,10 +6392,8 @@
       <c r="H205" t="n">
         <v>27</v>
       </c>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I205" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -6829,10 +6421,8 @@
       <c r="H206" t="n">
         <v>55</v>
       </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I206" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -6860,10 +6450,8 @@
       <c r="H207" t="n">
         <v>27</v>
       </c>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I207" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -6891,10 +6479,8 @@
       <c r="H208" t="n">
         <v>57</v>
       </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I208" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -6922,10 +6508,8 @@
       <c r="H209" t="n">
         <v>52</v>
       </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I209" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -6953,10 +6537,8 @@
       <c r="H210" t="n">
         <v>21</v>
       </c>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I210" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -6984,10 +6566,8 @@
       <c r="H211" t="n">
         <v>41</v>
       </c>
-      <c r="I211" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I211" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -7015,10 +6595,8 @@
       <c r="H212" t="n">
         <v>25</v>
       </c>
-      <c r="I212" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I212" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -7046,10 +6624,8 @@
       <c r="H213" t="n">
         <v>24</v>
       </c>
-      <c r="I213" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I213" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -7077,10 +6653,8 @@
       <c r="H214" t="n">
         <v>60</v>
       </c>
-      <c r="I214" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I214" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -7108,10 +6682,8 @@
       <c r="H215" t="n">
         <v>24</v>
       </c>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I215" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -7139,10 +6711,8 @@
       <c r="H216" t="n">
         <v>36</v>
       </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I216" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -7170,10 +6740,8 @@
       <c r="H217" t="n">
         <v>38</v>
       </c>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I217" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -7201,10 +6769,8 @@
       <c r="H218" t="n">
         <v>25</v>
       </c>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I218" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -7232,10 +6798,8 @@
       <c r="H219" t="n">
         <v>32</v>
       </c>
-      <c r="I219" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I219" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -7263,10 +6827,8 @@
       <c r="H220" t="n">
         <v>32</v>
       </c>
-      <c r="I220" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I220" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -7294,10 +6856,8 @@
       <c r="H221" t="n">
         <v>41</v>
       </c>
-      <c r="I221" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I221" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -7325,10 +6885,8 @@
       <c r="H222" t="n">
         <v>21</v>
       </c>
-      <c r="I222" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I222" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -7356,10 +6914,8 @@
       <c r="H223" t="n">
         <v>66</v>
       </c>
-      <c r="I223" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I223" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -7387,10 +6943,8 @@
       <c r="H224" t="n">
         <v>37</v>
       </c>
-      <c r="I224" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I224" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -7418,10 +6972,8 @@
       <c r="H225" t="n">
         <v>61</v>
       </c>
-      <c r="I225" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I225" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -7449,10 +7001,8 @@
       <c r="H226" t="n">
         <v>26</v>
       </c>
-      <c r="I226" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I226" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -7480,10 +7030,8 @@
       <c r="H227" t="n">
         <v>22</v>
       </c>
-      <c r="I227" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I227" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -7511,10 +7059,8 @@
       <c r="H228" t="n">
         <v>26</v>
       </c>
-      <c r="I228" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I228" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -7542,10 +7088,8 @@
       <c r="H229" t="n">
         <v>24</v>
       </c>
-      <c r="I229" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I229" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -7573,10 +7117,8 @@
       <c r="H230" t="n">
         <v>31</v>
       </c>
-      <c r="I230" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I230" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -7604,10 +7146,8 @@
       <c r="H231" t="n">
         <v>24</v>
       </c>
-      <c r="I231" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I231" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -7635,10 +7175,8 @@
       <c r="H232" t="n">
         <v>22</v>
       </c>
-      <c r="I232" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I232" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -7666,10 +7204,8 @@
       <c r="H233" t="n">
         <v>46</v>
       </c>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I233" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -7697,10 +7233,8 @@
       <c r="H234" t="n">
         <v>22</v>
       </c>
-      <c r="I234" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I234" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -7728,10 +7262,8 @@
       <c r="H235" t="n">
         <v>29</v>
       </c>
-      <c r="I235" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I235" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -7759,10 +7291,8 @@
       <c r="H236" t="n">
         <v>23</v>
       </c>
-      <c r="I236" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I236" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -7790,10 +7320,8 @@
       <c r="H237" t="n">
         <v>26</v>
       </c>
-      <c r="I237" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I237" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -7821,10 +7349,8 @@
       <c r="H238" t="n">
         <v>51</v>
       </c>
-      <c r="I238" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I238" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -7852,10 +7378,8 @@
       <c r="H239" t="n">
         <v>23</v>
       </c>
-      <c r="I239" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I239" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -7883,10 +7407,8 @@
       <c r="H240" t="n">
         <v>32</v>
       </c>
-      <c r="I240" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I240" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -7914,10 +7436,8 @@
       <c r="H241" t="n">
         <v>27</v>
       </c>
-      <c r="I241" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I241" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -7945,10 +7465,8 @@
       <c r="H242" t="n">
         <v>21</v>
       </c>
-      <c r="I242" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I242" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -7976,10 +7494,8 @@
       <c r="H243" t="n">
         <v>22</v>
       </c>
-      <c r="I243" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I243" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -8007,10 +7523,8 @@
       <c r="H244" t="n">
         <v>22</v>
       </c>
-      <c r="I244" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I244" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -8038,10 +7552,8 @@
       <c r="H245" t="n">
         <v>33</v>
       </c>
-      <c r="I245" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I245" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -8069,10 +7581,8 @@
       <c r="H246" t="n">
         <v>29</v>
       </c>
-      <c r="I246" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I246" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -8100,10 +7610,8 @@
       <c r="H247" t="n">
         <v>49</v>
       </c>
-      <c r="I247" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I247" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -8131,10 +7639,8 @@
       <c r="H248" t="n">
         <v>41</v>
       </c>
-      <c r="I248" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I248" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -8162,10 +7668,8 @@
       <c r="H249" t="n">
         <v>23</v>
       </c>
-      <c r="I249" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I249" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -8193,10 +7697,8 @@
       <c r="H250" t="n">
         <v>34</v>
       </c>
-      <c r="I250" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I250" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -8224,10 +7726,8 @@
       <c r="H251" t="n">
         <v>23</v>
       </c>
-      <c r="I251" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I251" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -8255,10 +7755,8 @@
       <c r="H252" t="n">
         <v>42</v>
       </c>
-      <c r="I252" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I252" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -8286,10 +7784,8 @@
       <c r="H253" t="n">
         <v>27</v>
       </c>
-      <c r="I253" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I253" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -8317,10 +7813,8 @@
       <c r="H254" t="n">
         <v>24</v>
       </c>
-      <c r="I254" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I254" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -8348,10 +7842,8 @@
       <c r="H255" t="n">
         <v>25</v>
       </c>
-      <c r="I255" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I255" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -8379,10 +7871,8 @@
       <c r="H256" t="n">
         <v>44</v>
       </c>
-      <c r="I256" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I256" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -8410,10 +7900,8 @@
       <c r="H257" t="n">
         <v>21</v>
       </c>
-      <c r="I257" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I257" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -8441,10 +7929,8 @@
       <c r="H258" t="n">
         <v>30</v>
       </c>
-      <c r="I258" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I258" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -8472,10 +7958,8 @@
       <c r="H259" t="n">
         <v>25</v>
       </c>
-      <c r="I259" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I259" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -8503,10 +7987,8 @@
       <c r="H260" t="n">
         <v>24</v>
       </c>
-      <c r="I260" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I260" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -8534,10 +8016,8 @@
       <c r="H261" t="n">
         <v>51</v>
       </c>
-      <c r="I261" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I261" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -8565,10 +8045,8 @@
       <c r="H262" t="n">
         <v>34</v>
       </c>
-      <c r="I262" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I262" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -8596,10 +8074,8 @@
       <c r="H263" t="n">
         <v>27</v>
       </c>
-      <c r="I263" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I263" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -8627,10 +8103,8 @@
       <c r="H264" t="n">
         <v>24</v>
       </c>
-      <c r="I264" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I264" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -8658,10 +8132,8 @@
       <c r="H265" t="n">
         <v>63</v>
       </c>
-      <c r="I265" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I265" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -8689,10 +8161,8 @@
       <c r="H266" t="n">
         <v>35</v>
       </c>
-      <c r="I266" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I266" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -8720,10 +8190,8 @@
       <c r="H267" t="n">
         <v>43</v>
       </c>
-      <c r="I267" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I267" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -8751,10 +8219,8 @@
       <c r="H268" t="n">
         <v>25</v>
       </c>
-      <c r="I268" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I268" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -8782,10 +8248,8 @@
       <c r="H269" t="n">
         <v>24</v>
       </c>
-      <c r="I269" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I269" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -8813,10 +8277,8 @@
       <c r="H270" t="n">
         <v>21</v>
       </c>
-      <c r="I270" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I270" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -8844,10 +8306,8 @@
       <c r="H271" t="n">
         <v>28</v>
       </c>
-      <c r="I271" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I271" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -8875,10 +8335,8 @@
       <c r="H272" t="n">
         <v>38</v>
       </c>
-      <c r="I272" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I272" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -8906,10 +8364,8 @@
       <c r="H273" t="n">
         <v>21</v>
       </c>
-      <c r="I273" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I273" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -8937,10 +8393,8 @@
       <c r="H274" t="n">
         <v>40</v>
       </c>
-      <c r="I274" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I274" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -8968,10 +8422,8 @@
       <c r="H275" t="n">
         <v>21</v>
       </c>
-      <c r="I275" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I275" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -8999,10 +8451,8 @@
       <c r="H276" t="n">
         <v>52</v>
       </c>
-      <c r="I276" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I276" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -9030,10 +8480,8 @@
       <c r="H277" t="n">
         <v>25</v>
       </c>
-      <c r="I277" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I277" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -9061,10 +8509,8 @@
       <c r="H278" t="n">
         <v>29</v>
       </c>
-      <c r="I278" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I278" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -9092,10 +8538,8 @@
       <c r="H279" t="n">
         <v>23</v>
       </c>
-      <c r="I279" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I279" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -9123,10 +8567,8 @@
       <c r="H280" t="n">
         <v>57</v>
       </c>
-      <c r="I280" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I280" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -9154,10 +8596,8 @@
       <c r="H281" t="n">
         <v>22</v>
       </c>
-      <c r="I281" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I281" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -9185,10 +8625,8 @@
       <c r="H282" t="n">
         <v>28</v>
       </c>
-      <c r="I282" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I282" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -9216,10 +8654,8 @@
       <c r="H283" t="n">
         <v>39</v>
       </c>
-      <c r="I283" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I283" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -9247,10 +8683,8 @@
       <c r="H284" t="n">
         <v>37</v>
       </c>
-      <c r="I284" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I284" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -9278,10 +8712,8 @@
       <c r="H285" t="n">
         <v>47</v>
       </c>
-      <c r="I285" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I285" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -9309,10 +8741,8 @@
       <c r="H286" t="n">
         <v>52</v>
       </c>
-      <c r="I286" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I286" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -9340,10 +8770,8 @@
       <c r="H287" t="n">
         <v>51</v>
       </c>
-      <c r="I287" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I287" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -9371,10 +8799,8 @@
       <c r="H288" t="n">
         <v>34</v>
       </c>
-      <c r="I288" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I288" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -9402,10 +8828,8 @@
       <c r="H289" t="n">
         <v>29</v>
       </c>
-      <c r="I289" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I289" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -9433,10 +8857,8 @@
       <c r="H290" t="n">
         <v>26</v>
       </c>
-      <c r="I290" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I290" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -9464,10 +8886,8 @@
       <c r="H291" t="n">
         <v>33</v>
       </c>
-      <c r="I291" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I291" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -9495,10 +8915,8 @@
       <c r="H292" t="n">
         <v>21</v>
       </c>
-      <c r="I292" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I292" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -9526,10 +8944,8 @@
       <c r="H293" t="n">
         <v>25</v>
       </c>
-      <c r="I293" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I293" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -9557,10 +8973,8 @@
       <c r="H294" t="n">
         <v>31</v>
       </c>
-      <c r="I294" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I294" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -9588,10 +9002,8 @@
       <c r="H295" t="n">
         <v>24</v>
       </c>
-      <c r="I295" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I295" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -9619,10 +9031,8 @@
       <c r="H296" t="n">
         <v>65</v>
       </c>
-      <c r="I296" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I296" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -9650,10 +9060,8 @@
       <c r="H297" t="n">
         <v>28</v>
       </c>
-      <c r="I297" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I297" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -9681,10 +9089,8 @@
       <c r="H298" t="n">
         <v>29</v>
       </c>
-      <c r="I298" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I298" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -9712,10 +9118,8 @@
       <c r="H299" t="n">
         <v>24</v>
       </c>
-      <c r="I299" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I299" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -9743,10 +9147,8 @@
       <c r="H300" t="n">
         <v>46</v>
       </c>
-      <c r="I300" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I300" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -9774,10 +9176,8 @@
       <c r="H301" t="n">
         <v>58</v>
       </c>
-      <c r="I301" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I301" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -9805,10 +9205,8 @@
       <c r="H302" t="n">
         <v>30</v>
       </c>
-      <c r="I302" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I302" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -9836,10 +9234,8 @@
       <c r="H303" t="n">
         <v>25</v>
       </c>
-      <c r="I303" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I303" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -9867,10 +9263,8 @@
       <c r="H304" t="n">
         <v>35</v>
       </c>
-      <c r="I304" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I304" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -9898,10 +9292,8 @@
       <c r="H305" t="n">
         <v>28</v>
       </c>
-      <c r="I305" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I305" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -9929,10 +9321,8 @@
       <c r="H306" t="n">
         <v>37</v>
       </c>
-      <c r="I306" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I306" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -9960,10 +9350,8 @@
       <c r="H307" t="n">
         <v>29</v>
       </c>
-      <c r="I307" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I307" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -9991,10 +9379,8 @@
       <c r="H308" t="n">
         <v>47</v>
       </c>
-      <c r="I308" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I308" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -10022,10 +9408,8 @@
       <c r="H309" t="n">
         <v>21</v>
       </c>
-      <c r="I309" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I309" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -10053,10 +9437,8 @@
       <c r="H310" t="n">
         <v>25</v>
       </c>
-      <c r="I310" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I310" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -10084,10 +9466,8 @@
       <c r="H311" t="n">
         <v>30</v>
       </c>
-      <c r="I311" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I311" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -10115,10 +9495,8 @@
       <c r="H312" t="n">
         <v>41</v>
       </c>
-      <c r="I312" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I312" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -10146,10 +9524,8 @@
       <c r="H313" t="n">
         <v>22</v>
       </c>
-      <c r="I313" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I313" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -10177,10 +9553,8 @@
       <c r="H314" t="n">
         <v>27</v>
       </c>
-      <c r="I314" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I314" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -10208,10 +9582,8 @@
       <c r="H315" t="n">
         <v>25</v>
       </c>
-      <c r="I315" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I315" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -10239,10 +9611,8 @@
       <c r="H316" t="n">
         <v>43</v>
       </c>
-      <c r="I316" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I316" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -10270,10 +9640,8 @@
       <c r="H317" t="n">
         <v>26</v>
       </c>
-      <c r="I317" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I317" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -10301,10 +9669,8 @@
       <c r="H318" t="n">
         <v>30</v>
       </c>
-      <c r="I318" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I318" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -10332,10 +9698,8 @@
       <c r="H319" t="n">
         <v>29</v>
       </c>
-      <c r="I319" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I319" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -10363,10 +9727,8 @@
       <c r="H320" t="n">
         <v>28</v>
       </c>
-      <c r="I320" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I320" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -10394,10 +9756,8 @@
       <c r="H321" t="n">
         <v>59</v>
       </c>
-      <c r="I321" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I321" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -10425,10 +9785,8 @@
       <c r="H322" t="n">
         <v>31</v>
       </c>
-      <c r="I322" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I322" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -10456,10 +9814,8 @@
       <c r="H323" t="n">
         <v>25</v>
       </c>
-      <c r="I323" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I323" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -10487,10 +9843,8 @@
       <c r="H324" t="n">
         <v>36</v>
       </c>
-      <c r="I324" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I324" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -10518,10 +9872,8 @@
       <c r="H325" t="n">
         <v>43</v>
       </c>
-      <c r="I325" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I325" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -10549,10 +9901,8 @@
       <c r="H326" t="n">
         <v>21</v>
       </c>
-      <c r="I326" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I326" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -10580,10 +9930,8 @@
       <c r="H327" t="n">
         <v>24</v>
       </c>
-      <c r="I327" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I327" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -10611,10 +9959,8 @@
       <c r="H328" t="n">
         <v>30</v>
       </c>
-      <c r="I328" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I328" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -10642,10 +9988,8 @@
       <c r="H329" t="n">
         <v>37</v>
       </c>
-      <c r="I329" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I329" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -10673,10 +10017,8 @@
       <c r="H330" t="n">
         <v>23</v>
       </c>
-      <c r="I330" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I330" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -10704,10 +10046,8 @@
       <c r="H331" t="n">
         <v>37</v>
       </c>
-      <c r="I331" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I331" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -10735,10 +10075,8 @@
       <c r="H332" t="n">
         <v>46</v>
       </c>
-      <c r="I332" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I332" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -10766,10 +10104,8 @@
       <c r="H333" t="n">
         <v>25</v>
       </c>
-      <c r="I333" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I333" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -10797,10 +10133,8 @@
       <c r="H334" t="n">
         <v>41</v>
       </c>
-      <c r="I334" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I334" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -10828,10 +10162,8 @@
       <c r="H335" t="n">
         <v>44</v>
       </c>
-      <c r="I335" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I335" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -10859,10 +10191,8 @@
       <c r="H336" t="n">
         <v>22</v>
       </c>
-      <c r="I336" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I336" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -10890,10 +10220,8 @@
       <c r="H337" t="n">
         <v>26</v>
       </c>
-      <c r="I337" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I337" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -10921,10 +10249,8 @@
       <c r="H338" t="n">
         <v>44</v>
       </c>
-      <c r="I338" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I338" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -10952,10 +10278,8 @@
       <c r="H339" t="n">
         <v>44</v>
       </c>
-      <c r="I339" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I339" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -10983,10 +10307,8 @@
       <c r="H340" t="n">
         <v>33</v>
       </c>
-      <c r="I340" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I340" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -11014,10 +10336,8 @@
       <c r="H341" t="n">
         <v>41</v>
       </c>
-      <c r="I341" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I341" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -11045,10 +10365,8 @@
       <c r="H342" t="n">
         <v>22</v>
       </c>
-      <c r="I342" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I342" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -11076,10 +10394,8 @@
       <c r="H343" t="n">
         <v>36</v>
       </c>
-      <c r="I343" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I343" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -11107,10 +10423,8 @@
       <c r="H344" t="n">
         <v>22</v>
       </c>
-      <c r="I344" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I344" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -11138,10 +10452,8 @@
       <c r="H345" t="n">
         <v>33</v>
       </c>
-      <c r="I345" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I345" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -11169,10 +10481,8 @@
       <c r="H346" t="n">
         <v>57</v>
       </c>
-      <c r="I346" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I346" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -11200,10 +10510,8 @@
       <c r="H347" t="n">
         <v>49</v>
       </c>
-      <c r="I347" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I347" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -11231,10 +10539,8 @@
       <c r="H348" t="n">
         <v>22</v>
       </c>
-      <c r="I348" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I348" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -11262,10 +10568,8 @@
       <c r="H349" t="n">
         <v>23</v>
       </c>
-      <c r="I349" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I349" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -11293,10 +10597,8 @@
       <c r="H350" t="n">
         <v>26</v>
       </c>
-      <c r="I350" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I350" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -11324,10 +10626,8 @@
       <c r="H351" t="n">
         <v>37</v>
       </c>
-      <c r="I351" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I351" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -11355,10 +10655,8 @@
       <c r="H352" t="n">
         <v>29</v>
       </c>
-      <c r="I352" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I352" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -11386,10 +10684,8 @@
       <c r="H353" t="n">
         <v>30</v>
       </c>
-      <c r="I353" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I353" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -11417,10 +10713,8 @@
       <c r="H354" t="n">
         <v>46</v>
       </c>
-      <c r="I354" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I354" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -11448,10 +10742,8 @@
       <c r="H355" t="n">
         <v>24</v>
       </c>
-      <c r="I355" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I355" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -11479,10 +10771,8 @@
       <c r="H356" t="n">
         <v>21</v>
       </c>
-      <c r="I356" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I356" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -11510,10 +10800,8 @@
       <c r="H357" t="n">
         <v>49</v>
       </c>
-      <c r="I357" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I357" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -11541,10 +10829,8 @@
       <c r="H358" t="n">
         <v>28</v>
       </c>
-      <c r="I358" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I358" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -11572,10 +10858,8 @@
       <c r="H359" t="n">
         <v>44</v>
       </c>
-      <c r="I359" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I359" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -11603,10 +10887,8 @@
       <c r="H360" t="n">
         <v>48</v>
       </c>
-      <c r="I360" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I360" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -11634,10 +10916,8 @@
       <c r="H361" t="n">
         <v>29</v>
       </c>
-      <c r="I361" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I361" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -11665,10 +10945,8 @@
       <c r="H362" t="n">
         <v>29</v>
       </c>
-      <c r="I362" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I362" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -11696,10 +10974,8 @@
       <c r="H363" t="n">
         <v>63</v>
       </c>
-      <c r="I363" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I363" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -11727,10 +11003,8 @@
       <c r="H364" t="n">
         <v>65</v>
       </c>
-      <c r="I364" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I364" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -11758,10 +11032,8 @@
       <c r="H365" t="n">
         <v>67</v>
       </c>
-      <c r="I365" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I365" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -11789,10 +11061,8 @@
       <c r="H366" t="n">
         <v>30</v>
       </c>
-      <c r="I366" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I366" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -11820,10 +11090,8 @@
       <c r="H367" t="n">
         <v>30</v>
       </c>
-      <c r="I367" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I367" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -11851,10 +11119,8 @@
       <c r="H368" t="n">
         <v>29</v>
       </c>
-      <c r="I368" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I368" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -11882,10 +11148,8 @@
       <c r="H369" t="n">
         <v>21</v>
       </c>
-      <c r="I369" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I369" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -11913,10 +11177,8 @@
       <c r="H370" t="n">
         <v>22</v>
       </c>
-      <c r="I370" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I370" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -11944,10 +11206,8 @@
       <c r="H371" t="n">
         <v>45</v>
       </c>
-      <c r="I371" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I371" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -11975,10 +11235,8 @@
       <c r="H372" t="n">
         <v>25</v>
       </c>
-      <c r="I372" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I372" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -12006,10 +11264,8 @@
       <c r="H373" t="n">
         <v>21</v>
       </c>
-      <c r="I373" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I373" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -12037,10 +11293,8 @@
       <c r="H374" t="n">
         <v>21</v>
       </c>
-      <c r="I374" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I374" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -12068,10 +11322,8 @@
       <c r="H375" t="n">
         <v>25</v>
       </c>
-      <c r="I375" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I375" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -12099,10 +11351,8 @@
       <c r="H376" t="n">
         <v>28</v>
       </c>
-      <c r="I376" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I376" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -12130,10 +11380,8 @@
       <c r="H377" t="n">
         <v>58</v>
       </c>
-      <c r="I377" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I377" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -12161,10 +11409,8 @@
       <c r="H378" t="n">
         <v>22</v>
       </c>
-      <c r="I378" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I378" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -12192,10 +11438,8 @@
       <c r="H379" t="n">
         <v>22</v>
       </c>
-      <c r="I379" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I379" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -12223,10 +11467,8 @@
       <c r="H380" t="n">
         <v>32</v>
       </c>
-      <c r="I380" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I380" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -12254,10 +11496,8 @@
       <c r="H381" t="n">
         <v>35</v>
       </c>
-      <c r="I381" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I381" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -12285,10 +11525,8 @@
       <c r="H382" t="n">
         <v>24</v>
       </c>
-      <c r="I382" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I382" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -12316,10 +11554,8 @@
       <c r="H383" t="n">
         <v>22</v>
       </c>
-      <c r="I383" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I383" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -12347,10 +11583,8 @@
       <c r="H384" t="n">
         <v>21</v>
       </c>
-      <c r="I384" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I384" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -12378,10 +11612,8 @@
       <c r="H385" t="n">
         <v>25</v>
       </c>
-      <c r="I385" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I385" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -12409,10 +11641,8 @@
       <c r="H386" t="n">
         <v>25</v>
       </c>
-      <c r="I386" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I386" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -12440,10 +11670,8 @@
       <c r="H387" t="n">
         <v>24</v>
       </c>
-      <c r="I387" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I387" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="388">
@@ -12471,10 +11699,8 @@
       <c r="H388" t="n">
         <v>35</v>
       </c>
-      <c r="I388" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I388" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -12502,10 +11728,8 @@
       <c r="H389" t="n">
         <v>45</v>
       </c>
-      <c r="I389" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I389" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -12533,10 +11757,8 @@
       <c r="H390" t="n">
         <v>58</v>
       </c>
-      <c r="I390" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I390" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -12564,10 +11786,8 @@
       <c r="H391" t="n">
         <v>28</v>
       </c>
-      <c r="I391" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I391" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -12595,10 +11815,8 @@
       <c r="H392" t="n">
         <v>42</v>
       </c>
-      <c r="I392" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I392" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -12626,10 +11844,8 @@
       <c r="H393" t="n">
         <v>27</v>
       </c>
-      <c r="I393" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I393" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -12657,10 +11873,8 @@
       <c r="H394" t="n">
         <v>21</v>
       </c>
-      <c r="I394" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I394" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -12688,10 +11902,8 @@
       <c r="H395" t="n">
         <v>37</v>
       </c>
-      <c r="I395" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I395" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -12719,10 +11931,8 @@
       <c r="H396" t="n">
         <v>31</v>
       </c>
-      <c r="I396" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I396" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -12750,10 +11960,8 @@
       <c r="H397" t="n">
         <v>25</v>
       </c>
-      <c r="I397" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I397" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -12781,10 +11989,8 @@
       <c r="H398" t="n">
         <v>39</v>
       </c>
-      <c r="I398" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I398" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -12812,10 +12018,8 @@
       <c r="H399" t="n">
         <v>22</v>
       </c>
-      <c r="I399" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I399" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -12843,10 +12047,8 @@
       <c r="H400" t="n">
         <v>25</v>
       </c>
-      <c r="I400" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I400" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -12874,10 +12076,8 @@
       <c r="H401" t="n">
         <v>25</v>
       </c>
-      <c r="I401" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I401" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -12905,10 +12105,8 @@
       <c r="H402" t="n">
         <v>31</v>
       </c>
-      <c r="I402" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I402" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -12936,10 +12134,8 @@
       <c r="H403" t="n">
         <v>55</v>
       </c>
-      <c r="I403" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I403" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -12967,10 +12163,8 @@
       <c r="H404" t="n">
         <v>35</v>
       </c>
-      <c r="I404" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I404" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="405">
@@ -12998,10 +12192,8 @@
       <c r="H405" t="n">
         <v>38</v>
       </c>
-      <c r="I405" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I405" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -13029,10 +12221,8 @@
       <c r="H406" t="n">
         <v>41</v>
       </c>
-      <c r="I406" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I406" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -13060,10 +12250,8 @@
       <c r="H407" t="n">
         <v>26</v>
       </c>
-      <c r="I407" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I407" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -13091,10 +12279,8 @@
       <c r="H408" t="n">
         <v>46</v>
       </c>
-      <c r="I408" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I408" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -13122,10 +12308,8 @@
       <c r="H409" t="n">
         <v>25</v>
       </c>
-      <c r="I409" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I409" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -13153,10 +12337,8 @@
       <c r="H410" t="n">
         <v>39</v>
       </c>
-      <c r="I410" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I410" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -13184,10 +12366,8 @@
       <c r="H411" t="n">
         <v>28</v>
       </c>
-      <c r="I411" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I411" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -13215,10 +12395,8 @@
       <c r="H412" t="n">
         <v>28</v>
       </c>
-      <c r="I412" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I412" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="413">
@@ -13246,10 +12424,8 @@
       <c r="H413" t="n">
         <v>25</v>
       </c>
-      <c r="I413" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I413" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -13277,10 +12453,8 @@
       <c r="H414" t="n">
         <v>22</v>
       </c>
-      <c r="I414" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I414" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -13308,10 +12482,8 @@
       <c r="H415" t="n">
         <v>21</v>
       </c>
-      <c r="I415" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I415" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -13339,10 +12511,8 @@
       <c r="H416" t="n">
         <v>21</v>
       </c>
-      <c r="I416" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I416" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -13370,10 +12540,8 @@
       <c r="H417" t="n">
         <v>22</v>
       </c>
-      <c r="I417" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I417" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -13401,10 +12569,8 @@
       <c r="H418" t="n">
         <v>22</v>
       </c>
-      <c r="I418" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I418" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="419">
@@ -13432,10 +12598,8 @@
       <c r="H419" t="n">
         <v>37</v>
       </c>
-      <c r="I419" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I419" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -13463,10 +12627,8 @@
       <c r="H420" t="n">
         <v>27</v>
       </c>
-      <c r="I420" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I420" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="421">
@@ -13494,10 +12656,8 @@
       <c r="H421" t="n">
         <v>28</v>
       </c>
-      <c r="I421" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I421" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -13525,10 +12685,8 @@
       <c r="H422" t="n">
         <v>26</v>
       </c>
-      <c r="I422" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I422" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -13556,10 +12714,8 @@
       <c r="H423" t="n">
         <v>21</v>
       </c>
-      <c r="I423" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I423" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -13587,10 +12743,8 @@
       <c r="H424" t="n">
         <v>21</v>
       </c>
-      <c r="I424" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I424" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -13618,10 +12772,8 @@
       <c r="H425" t="n">
         <v>21</v>
       </c>
-      <c r="I425" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I425" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -13649,10 +12801,8 @@
       <c r="H426" t="n">
         <v>36</v>
       </c>
-      <c r="I426" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I426" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="427">
@@ -13680,10 +12830,8 @@
       <c r="H427" t="n">
         <v>31</v>
       </c>
-      <c r="I427" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I427" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -13711,10 +12859,8 @@
       <c r="H428" t="n">
         <v>25</v>
       </c>
-      <c r="I428" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I428" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="429">
@@ -13742,10 +12888,8 @@
       <c r="H429" t="n">
         <v>38</v>
       </c>
-      <c r="I429" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I429" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -13773,10 +12917,8 @@
       <c r="H430" t="n">
         <v>26</v>
       </c>
-      <c r="I430" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I430" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -13804,10 +12946,8 @@
       <c r="H431" t="n">
         <v>43</v>
       </c>
-      <c r="I431" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I431" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="432">
@@ -13835,10 +12975,8 @@
       <c r="H432" t="n">
         <v>23</v>
       </c>
-      <c r="I432" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I432" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -13866,10 +13004,8 @@
       <c r="H433" t="n">
         <v>38</v>
       </c>
-      <c r="I433" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I433" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -13897,10 +13033,8 @@
       <c r="H434" t="n">
         <v>22</v>
       </c>
-      <c r="I434" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I434" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="435">
@@ -13928,10 +13062,8 @@
       <c r="H435" t="n">
         <v>29</v>
       </c>
-      <c r="I435" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I435" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -13959,10 +13091,8 @@
       <c r="H436" t="n">
         <v>36</v>
       </c>
-      <c r="I436" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I436" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -13990,10 +13120,8 @@
       <c r="H437" t="n">
         <v>29</v>
       </c>
-      <c r="I437" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I437" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -14021,10 +13149,8 @@
       <c r="H438" t="n">
         <v>41</v>
       </c>
-      <c r="I438" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I438" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="439">
@@ -14052,10 +13178,8 @@
       <c r="H439" t="n">
         <v>28</v>
       </c>
-      <c r="I439" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I439" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="440">
@@ -14083,10 +13207,8 @@
       <c r="H440" t="n">
         <v>21</v>
       </c>
-      <c r="I440" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I440" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -14114,10 +13236,8 @@
       <c r="H441" t="n">
         <v>31</v>
       </c>
-      <c r="I441" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I441" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -14145,10 +13265,8 @@
       <c r="H442" t="n">
         <v>41</v>
       </c>
-      <c r="I442" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I442" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -14176,10 +13294,8 @@
       <c r="H443" t="n">
         <v>22</v>
       </c>
-      <c r="I443" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I443" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="444">
@@ -14207,10 +13323,8 @@
       <c r="H444" t="n">
         <v>24</v>
       </c>
-      <c r="I444" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I444" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -14238,10 +13352,8 @@
       <c r="H445" t="n">
         <v>33</v>
       </c>
-      <c r="I445" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I445" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -14269,10 +13381,8 @@
       <c r="H446" t="n">
         <v>30</v>
       </c>
-      <c r="I446" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I446" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -14300,10 +13410,8 @@
       <c r="H447" t="n">
         <v>25</v>
       </c>
-      <c r="I447" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I447" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -14331,10 +13439,8 @@
       <c r="H448" t="n">
         <v>28</v>
       </c>
-      <c r="I448" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I448" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="449">
@@ -14362,10 +13468,8 @@
       <c r="H449" t="n">
         <v>26</v>
       </c>
-      <c r="I449" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I449" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="450">
@@ -14393,10 +13497,8 @@
       <c r="H450" t="n">
         <v>22</v>
       </c>
-      <c r="I450" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I450" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="451">
@@ -14424,10 +13526,8 @@
       <c r="H451" t="n">
         <v>26</v>
       </c>
-      <c r="I451" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I451" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="452">
@@ -14455,10 +13555,8 @@
       <c r="H452" t="n">
         <v>23</v>
       </c>
-      <c r="I452" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I452" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -14486,10 +13584,8 @@
       <c r="H453" t="n">
         <v>23</v>
       </c>
-      <c r="I453" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I453" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -14517,10 +13613,8 @@
       <c r="H454" t="n">
         <v>25</v>
       </c>
-      <c r="I454" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I454" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="455">
@@ -14548,10 +13642,8 @@
       <c r="H455" t="n">
         <v>72</v>
       </c>
-      <c r="I455" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I455" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="456">
@@ -14579,10 +13671,8 @@
       <c r="H456" t="n">
         <v>24</v>
       </c>
-      <c r="I456" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I456" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="457">
@@ -14610,10 +13700,8 @@
       <c r="H457" t="n">
         <v>38</v>
       </c>
-      <c r="I457" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I457" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -14641,10 +13729,8 @@
       <c r="H458" t="n">
         <v>62</v>
       </c>
-      <c r="I458" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I458" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="459">
@@ -14672,10 +13758,8 @@
       <c r="H459" t="n">
         <v>24</v>
       </c>
-      <c r="I459" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I459" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="460">
@@ -14703,10 +13787,8 @@
       <c r="H460" t="n">
         <v>51</v>
       </c>
-      <c r="I460" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I460" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="461">
@@ -14734,10 +13816,8 @@
       <c r="H461" t="n">
         <v>81</v>
       </c>
-      <c r="I461" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I461" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="462">
@@ -14765,10 +13845,8 @@
       <c r="H462" t="n">
         <v>48</v>
       </c>
-      <c r="I462" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I462" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="463">
@@ -14796,10 +13874,8 @@
       <c r="H463" t="n">
         <v>26</v>
       </c>
-      <c r="I463" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I463" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -14827,10 +13903,8 @@
       <c r="H464" t="n">
         <v>39</v>
       </c>
-      <c r="I464" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I464" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="465">
@@ -14858,10 +13932,8 @@
       <c r="H465" t="n">
         <v>37</v>
       </c>
-      <c r="I465" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I465" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="466">
@@ -14889,10 +13961,8 @@
       <c r="H466" t="n">
         <v>34</v>
       </c>
-      <c r="I466" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I466" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="467">
@@ -14920,10 +13990,8 @@
       <c r="H467" t="n">
         <v>21</v>
       </c>
-      <c r="I467" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I467" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="468">
@@ -14951,10 +14019,8 @@
       <c r="H468" t="n">
         <v>22</v>
       </c>
-      <c r="I468" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I468" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -14982,10 +14048,8 @@
       <c r="H469" t="n">
         <v>25</v>
       </c>
-      <c r="I469" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I469" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="470">
@@ -15013,10 +14077,8 @@
       <c r="H470" t="n">
         <v>38</v>
       </c>
-      <c r="I470" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I470" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -15044,10 +14106,8 @@
       <c r="H471" t="n">
         <v>27</v>
       </c>
-      <c r="I471" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I471" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="472">
@@ -15075,10 +14135,8 @@
       <c r="H472" t="n">
         <v>28</v>
       </c>
-      <c r="I472" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I472" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -15106,10 +14164,8 @@
       <c r="H473" t="n">
         <v>22</v>
       </c>
-      <c r="I473" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I473" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="474">
@@ -15137,10 +14193,8 @@
       <c r="H474" t="n">
         <v>22</v>
       </c>
-      <c r="I474" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I474" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -15168,10 +14222,8 @@
       <c r="H475" t="n">
         <v>50</v>
       </c>
-      <c r="I475" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I475" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="476">
@@ -15199,10 +14251,8 @@
       <c r="H476" t="n">
         <v>24</v>
       </c>
-      <c r="I476" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I476" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -15230,10 +14280,8 @@
       <c r="H477" t="n">
         <v>59</v>
       </c>
-      <c r="I477" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I477" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -15261,10 +14309,8 @@
       <c r="H478" t="n">
         <v>29</v>
       </c>
-      <c r="I478" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I478" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="479">
@@ -15292,10 +14338,8 @@
       <c r="H479" t="n">
         <v>31</v>
       </c>
-      <c r="I479" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I479" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="480">
@@ -15323,10 +14367,8 @@
       <c r="H480" t="n">
         <v>39</v>
       </c>
-      <c r="I480" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I480" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -15354,10 +14396,8 @@
       <c r="H481" t="n">
         <v>63</v>
       </c>
-      <c r="I481" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I481" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -15385,10 +14425,8 @@
       <c r="H482" t="n">
         <v>35</v>
       </c>
-      <c r="I482" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I482" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="483">
@@ -15416,10 +14454,8 @@
       <c r="H483" t="n">
         <v>29</v>
       </c>
-      <c r="I483" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I483" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="484">
@@ -15447,10 +14483,8 @@
       <c r="H484" t="n">
         <v>28</v>
       </c>
-      <c r="I484" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I484" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -15478,10 +14512,8 @@
       <c r="H485" t="n">
         <v>23</v>
       </c>
-      <c r="I485" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I485" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -15509,10 +14541,8 @@
       <c r="H486" t="n">
         <v>31</v>
       </c>
-      <c r="I486" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I486" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="487">
@@ -15540,10 +14570,8 @@
       <c r="H487" t="n">
         <v>24</v>
       </c>
-      <c r="I487" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I487" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="488">
@@ -15571,10 +14599,8 @@
       <c r="H488" t="n">
         <v>21</v>
       </c>
-      <c r="I488" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I488" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="489">
@@ -15602,10 +14628,8 @@
       <c r="H489" t="n">
         <v>58</v>
       </c>
-      <c r="I489" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I489" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -15633,10 +14657,8 @@
       <c r="H490" t="n">
         <v>28</v>
       </c>
-      <c r="I490" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I490" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="491">
@@ -15664,10 +14686,8 @@
       <c r="H491" t="n">
         <v>67</v>
       </c>
-      <c r="I491" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I491" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -15695,10 +14715,8 @@
       <c r="H492" t="n">
         <v>24</v>
       </c>
-      <c r="I492" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I492" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -15726,10 +14744,8 @@
       <c r="H493" t="n">
         <v>42</v>
       </c>
-      <c r="I493" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I493" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="494">
@@ -15757,10 +14773,8 @@
       <c r="H494" t="n">
         <v>33</v>
       </c>
-      <c r="I494" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I494" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="495">
@@ -15788,10 +14802,8 @@
       <c r="H495" t="n">
         <v>45</v>
       </c>
-      <c r="I495" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I495" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="496">
@@ -15819,10 +14831,8 @@
       <c r="H496" t="n">
         <v>22</v>
       </c>
-      <c r="I496" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I496" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -15850,10 +14860,8 @@
       <c r="H497" t="n">
         <v>66</v>
       </c>
-      <c r="I497" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I497" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -15881,10 +14889,8 @@
       <c r="H498" t="n">
         <v>30</v>
       </c>
-      <c r="I498" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I498" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="499">
@@ -15912,10 +14918,8 @@
       <c r="H499" t="n">
         <v>25</v>
       </c>
-      <c r="I499" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I499" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="500">
@@ -15943,10 +14947,8 @@
       <c r="H500" t="n">
         <v>55</v>
       </c>
-      <c r="I500" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I500" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="501">
@@ -15974,10 +14976,8 @@
       <c r="H501" t="n">
         <v>39</v>
       </c>
-      <c r="I501" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I501" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="502">
@@ -16005,10 +15005,8 @@
       <c r="H502" t="n">
         <v>21</v>
       </c>
-      <c r="I502" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I502" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="503">
@@ -16036,10 +15034,8 @@
       <c r="H503" t="n">
         <v>28</v>
       </c>
-      <c r="I503" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I503" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="504">
@@ -16067,10 +15063,8 @@
       <c r="H504" t="n">
         <v>41</v>
       </c>
-      <c r="I504" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I504" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="505">
@@ -16098,10 +15092,8 @@
       <c r="H505" t="n">
         <v>41</v>
       </c>
-      <c r="I505" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I505" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="506">
@@ -16129,10 +15121,8 @@
       <c r="H506" t="n">
         <v>40</v>
       </c>
-      <c r="I506" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I506" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="507">
@@ -16160,10 +15150,8 @@
       <c r="H507" t="n">
         <v>38</v>
       </c>
-      <c r="I507" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I507" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="508">
@@ -16191,10 +15179,8 @@
       <c r="H508" t="n">
         <v>35</v>
       </c>
-      <c r="I508" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I508" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="509">
@@ -16222,10 +15208,8 @@
       <c r="H509" t="n">
         <v>21</v>
       </c>
-      <c r="I509" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I509" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="510">
@@ -16253,10 +15237,8 @@
       <c r="H510" t="n">
         <v>21</v>
       </c>
-      <c r="I510" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I510" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="511">
@@ -16284,10 +15266,8 @@
       <c r="H511" t="n">
         <v>64</v>
       </c>
-      <c r="I511" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I511" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="512">
@@ -16315,10 +15295,8 @@
       <c r="H512" t="n">
         <v>46</v>
       </c>
-      <c r="I512" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I512" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="513">
@@ -16346,10 +15324,8 @@
       <c r="H513" t="n">
         <v>21</v>
       </c>
-      <c r="I513" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I513" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="514">
@@ -16377,10 +15353,8 @@
       <c r="H514" t="n">
         <v>58</v>
       </c>
-      <c r="I514" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I514" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -16408,10 +15382,8 @@
       <c r="H515" t="n">
         <v>22</v>
       </c>
-      <c r="I515" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I515" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -16439,10 +15411,8 @@
       <c r="H516" t="n">
         <v>24</v>
       </c>
-      <c r="I516" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I516" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -16470,10 +15440,8 @@
       <c r="H517" t="n">
         <v>28</v>
       </c>
-      <c r="I517" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I517" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="518">
@@ -16501,10 +15469,8 @@
       <c r="H518" t="n">
         <v>53</v>
       </c>
-      <c r="I518" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I518" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="519">
@@ -16532,10 +15498,8 @@
       <c r="H519" t="n">
         <v>51</v>
       </c>
-      <c r="I519" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I519" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="520">
@@ -16563,10 +15527,8 @@
       <c r="H520" t="n">
         <v>41</v>
       </c>
-      <c r="I520" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I520" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -16594,10 +15556,8 @@
       <c r="H521" t="n">
         <v>60</v>
       </c>
-      <c r="I521" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I521" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -16625,10 +15585,8 @@
       <c r="H522" t="n">
         <v>25</v>
       </c>
-      <c r="I522" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I522" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -16656,10 +15614,8 @@
       <c r="H523" t="n">
         <v>26</v>
       </c>
-      <c r="I523" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I523" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="524">
@@ -16687,10 +15643,8 @@
       <c r="H524" t="n">
         <v>26</v>
       </c>
-      <c r="I524" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I524" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -16718,10 +15672,8 @@
       <c r="H525" t="n">
         <v>45</v>
       </c>
-      <c r="I525" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I525" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="526">
@@ -16749,10 +15701,8 @@
       <c r="H526" t="n">
         <v>24</v>
       </c>
-      <c r="I526" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I526" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -16780,10 +15730,8 @@
       <c r="H527" t="n">
         <v>21</v>
       </c>
-      <c r="I527" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I527" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -16811,10 +15759,8 @@
       <c r="H528" t="n">
         <v>21</v>
       </c>
-      <c r="I528" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I528" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="529">
@@ -16842,10 +15788,8 @@
       <c r="H529" t="n">
         <v>24</v>
       </c>
-      <c r="I529" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I529" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="530">
@@ -16873,10 +15817,8 @@
       <c r="H530" t="n">
         <v>22</v>
       </c>
-      <c r="I530" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I530" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="531">
@@ -16904,10 +15846,8 @@
       <c r="H531" t="n">
         <v>31</v>
       </c>
-      <c r="I531" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I531" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="532">
@@ -16935,10 +15875,8 @@
       <c r="H532" t="n">
         <v>22</v>
       </c>
-      <c r="I532" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I532" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="533">
@@ -16966,10 +15904,8 @@
       <c r="H533" t="n">
         <v>24</v>
       </c>
-      <c r="I533" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I533" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="534">
@@ -16997,10 +15933,8 @@
       <c r="H534" t="n">
         <v>29</v>
       </c>
-      <c r="I534" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I534" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="535">
@@ -17028,10 +15962,8 @@
       <c r="H535" t="n">
         <v>31</v>
       </c>
-      <c r="I535" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I535" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="536">
@@ -17059,10 +15991,8 @@
       <c r="H536" t="n">
         <v>24</v>
       </c>
-      <c r="I536" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I536" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="537">
@@ -17090,10 +16020,8 @@
       <c r="H537" t="n">
         <v>23</v>
       </c>
-      <c r="I537" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I537" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="538">
@@ -17121,10 +16049,8 @@
       <c r="H538" t="n">
         <v>46</v>
       </c>
-      <c r="I538" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I538" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="539">
@@ -17152,10 +16078,8 @@
       <c r="H539" t="n">
         <v>67</v>
       </c>
-      <c r="I539" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I539" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -17183,10 +16107,8 @@
       <c r="H540" t="n">
         <v>23</v>
       </c>
-      <c r="I540" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I540" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="541">
@@ -17214,10 +16136,8 @@
       <c r="H541" t="n">
         <v>32</v>
       </c>
-      <c r="I541" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I541" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="542">
@@ -17245,10 +16165,8 @@
       <c r="H542" t="n">
         <v>43</v>
       </c>
-      <c r="I542" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I542" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="543">
@@ -17276,10 +16194,8 @@
       <c r="H543" t="n">
         <v>27</v>
       </c>
-      <c r="I543" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I543" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="544">
@@ -17307,10 +16223,8 @@
       <c r="H544" t="n">
         <v>56</v>
       </c>
-      <c r="I544" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I544" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="545">
@@ -17338,10 +16252,8 @@
       <c r="H545" t="n">
         <v>25</v>
       </c>
-      <c r="I545" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I545" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="546">
@@ -17369,10 +16281,8 @@
       <c r="H546" t="n">
         <v>29</v>
       </c>
-      <c r="I546" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I546" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="547">
@@ -17400,10 +16310,8 @@
       <c r="H547" t="n">
         <v>37</v>
       </c>
-      <c r="I547" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I547" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -17431,10 +16339,8 @@
       <c r="H548" t="n">
         <v>53</v>
       </c>
-      <c r="I548" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I548" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="549">
@@ -17462,10 +16368,8 @@
       <c r="H549" t="n">
         <v>28</v>
       </c>
-      <c r="I549" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I549" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="550">
@@ -17493,10 +16397,8 @@
       <c r="H550" t="n">
         <v>50</v>
       </c>
-      <c r="I550" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I550" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="551">
@@ -17524,10 +16426,8 @@
       <c r="H551" t="n">
         <v>37</v>
       </c>
-      <c r="I551" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I551" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="552">
@@ -17555,10 +16455,8 @@
       <c r="H552" t="n">
         <v>21</v>
       </c>
-      <c r="I552" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I552" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="553">
@@ -17586,10 +16484,8 @@
       <c r="H553" t="n">
         <v>25</v>
       </c>
-      <c r="I553" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I553" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -17617,10 +16513,8 @@
       <c r="H554" t="n">
         <v>66</v>
       </c>
-      <c r="I554" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I554" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="555">
@@ -17648,10 +16542,8 @@
       <c r="H555" t="n">
         <v>23</v>
       </c>
-      <c r="I555" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I555" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="556">
@@ -17679,10 +16571,8 @@
       <c r="H556" t="n">
         <v>28</v>
       </c>
-      <c r="I556" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I556" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="557">
@@ -17710,10 +16600,8 @@
       <c r="H557" t="n">
         <v>37</v>
       </c>
-      <c r="I557" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I557" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="558">
@@ -17741,10 +16629,8 @@
       <c r="H558" t="n">
         <v>30</v>
       </c>
-      <c r="I558" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I558" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="559">
@@ -17772,10 +16658,8 @@
       <c r="H559" t="n">
         <v>58</v>
       </c>
-      <c r="I559" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I559" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="560">
@@ -17803,10 +16687,8 @@
       <c r="H560" t="n">
         <v>42</v>
       </c>
-      <c r="I560" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I560" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="561">
@@ -17834,10 +16716,8 @@
       <c r="H561" t="n">
         <v>35</v>
       </c>
-      <c r="I561" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I561" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="562">
@@ -17865,10 +16745,8 @@
       <c r="H562" t="n">
         <v>54</v>
       </c>
-      <c r="I562" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I562" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="563">
@@ -17896,10 +16774,8 @@
       <c r="H563" t="n">
         <v>28</v>
       </c>
-      <c r="I563" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I563" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="564">
@@ -17927,10 +16803,8 @@
       <c r="H564" t="n">
         <v>24</v>
       </c>
-      <c r="I564" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I564" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="565">
@@ -17958,10 +16832,8 @@
       <c r="H565" t="n">
         <v>32</v>
       </c>
-      <c r="I565" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I565" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="566">
@@ -17989,10 +16861,8 @@
       <c r="H566" t="n">
         <v>27</v>
       </c>
-      <c r="I566" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I566" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="567">
@@ -18020,10 +16890,8 @@
       <c r="H567" t="n">
         <v>22</v>
       </c>
-      <c r="I567" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I567" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="568">
@@ -18051,10 +16919,8 @@
       <c r="H568" t="n">
         <v>21</v>
       </c>
-      <c r="I568" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I568" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -18082,10 +16948,8 @@
       <c r="H569" t="n">
         <v>46</v>
       </c>
-      <c r="I569" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I569" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="570">
@@ -18113,10 +16977,8 @@
       <c r="H570" t="n">
         <v>37</v>
       </c>
-      <c r="I570" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I570" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="571">
@@ -18144,10 +17006,8 @@
       <c r="H571" t="n">
         <v>33</v>
       </c>
-      <c r="I571" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I571" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="572">
@@ -18175,10 +17035,8 @@
       <c r="H572" t="n">
         <v>39</v>
       </c>
-      <c r="I572" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I572" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="573">
@@ -18206,10 +17064,8 @@
       <c r="H573" t="n">
         <v>21</v>
       </c>
-      <c r="I573" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I573" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="574">
@@ -18237,10 +17093,8 @@
       <c r="H574" t="n">
         <v>22</v>
       </c>
-      <c r="I574" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I574" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="575">
@@ -18268,10 +17122,8 @@
       <c r="H575" t="n">
         <v>22</v>
       </c>
-      <c r="I575" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I575" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="576">
@@ -18299,10 +17151,8 @@
       <c r="H576" t="n">
         <v>23</v>
       </c>
-      <c r="I576" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I576" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="577">
@@ -18330,10 +17180,8 @@
       <c r="H577" t="n">
         <v>25</v>
       </c>
-      <c r="I577" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I577" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="578">
@@ -18361,10 +17209,8 @@
       <c r="H578" t="n">
         <v>35</v>
       </c>
-      <c r="I578" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I578" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="579">
@@ -18392,10 +17238,8 @@
       <c r="H579" t="n">
         <v>21</v>
       </c>
-      <c r="I579" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I579" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="580">
@@ -18423,10 +17267,8 @@
       <c r="H580" t="n">
         <v>36</v>
       </c>
-      <c r="I580" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I580" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="581">
@@ -18454,10 +17296,8 @@
       <c r="H581" t="n">
         <v>62</v>
       </c>
-      <c r="I581" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I581" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="582">
@@ -18485,10 +17325,8 @@
       <c r="H582" t="n">
         <v>21</v>
       </c>
-      <c r="I582" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I582" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="583">
@@ -18516,10 +17354,8 @@
       <c r="H583" t="n">
         <v>27</v>
       </c>
-      <c r="I583" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I583" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="584">
@@ -18547,10 +17383,8 @@
       <c r="H584" t="n">
         <v>62</v>
       </c>
-      <c r="I584" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I584" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="585">
@@ -18578,10 +17412,8 @@
       <c r="H585" t="n">
         <v>42</v>
       </c>
-      <c r="I585" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I585" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="586">
@@ -18609,10 +17441,8 @@
       <c r="H586" t="n">
         <v>52</v>
       </c>
-      <c r="I586" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I586" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="587">
@@ -18640,10 +17470,8 @@
       <c r="H587" t="n">
         <v>22</v>
       </c>
-      <c r="I587" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I587" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="588">
@@ -18671,10 +17499,8 @@
       <c r="H588" t="n">
         <v>41</v>
       </c>
-      <c r="I588" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I588" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="589">
@@ -18702,10 +17528,8 @@
       <c r="H589" t="n">
         <v>29</v>
       </c>
-      <c r="I589" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I589" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="590">
@@ -18733,10 +17557,8 @@
       <c r="H590" t="n">
         <v>52</v>
       </c>
-      <c r="I590" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I590" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -18764,10 +17586,8 @@
       <c r="H591" t="n">
         <v>25</v>
       </c>
-      <c r="I591" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I591" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="592">
@@ -18795,10 +17615,8 @@
       <c r="H592" t="n">
         <v>45</v>
       </c>
-      <c r="I592" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I592" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="593">
@@ -18826,10 +17644,8 @@
       <c r="H593" t="n">
         <v>24</v>
       </c>
-      <c r="I593" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I593" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="594">
@@ -18857,10 +17673,8 @@
       <c r="H594" t="n">
         <v>44</v>
       </c>
-      <c r="I594" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I594" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="595">
@@ -18888,10 +17702,8 @@
       <c r="H595" t="n">
         <v>25</v>
       </c>
-      <c r="I595" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I595" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="596">
@@ -18919,10 +17731,8 @@
       <c r="H596" t="n">
         <v>34</v>
       </c>
-      <c r="I596" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I596" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="597">
@@ -18950,10 +17760,8 @@
       <c r="H597" t="n">
         <v>22</v>
       </c>
-      <c r="I597" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I597" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="598">
@@ -18981,10 +17789,8 @@
       <c r="H598" t="n">
         <v>46</v>
       </c>
-      <c r="I598" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I598" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -19012,10 +17818,8 @@
       <c r="H599" t="n">
         <v>21</v>
       </c>
-      <c r="I599" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I599" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="600">
@@ -19043,10 +17847,8 @@
       <c r="H600" t="n">
         <v>38</v>
       </c>
-      <c r="I600" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I600" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="601">
@@ -19074,10 +17876,8 @@
       <c r="H601" t="n">
         <v>26</v>
       </c>
-      <c r="I601" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I601" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="602">
@@ -19105,10 +17905,8 @@
       <c r="H602" t="n">
         <v>24</v>
       </c>
-      <c r="I602" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I602" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="603">
@@ -19136,10 +17934,8 @@
       <c r="H603" t="n">
         <v>28</v>
       </c>
-      <c r="I603" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I603" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="604">
@@ -19167,10 +17963,8 @@
       <c r="H604" t="n">
         <v>30</v>
       </c>
-      <c r="I604" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I604" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="605">
@@ -19198,10 +17992,8 @@
       <c r="H605" t="n">
         <v>54</v>
       </c>
-      <c r="I605" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I605" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="606">
@@ -19229,10 +18021,8 @@
       <c r="H606" t="n">
         <v>36</v>
       </c>
-      <c r="I606" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I606" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="607">
@@ -19260,10 +18050,8 @@
       <c r="H607" t="n">
         <v>21</v>
       </c>
-      <c r="I607" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I607" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="608">
@@ -19291,10 +18079,8 @@
       <c r="H608" t="n">
         <v>22</v>
       </c>
-      <c r="I608" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I608" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="609">
@@ -19322,10 +18108,8 @@
       <c r="H609" t="n">
         <v>25</v>
       </c>
-      <c r="I609" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I609" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="610">
@@ -19353,10 +18137,8 @@
       <c r="H610" t="n">
         <v>27</v>
       </c>
-      <c r="I610" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I610" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="611">
@@ -19384,10 +18166,8 @@
       <c r="H611" t="n">
         <v>23</v>
       </c>
-      <c r="I611" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I611" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="612">
@@ -19415,10 +18195,8 @@
       <c r="H612" t="n">
         <v>24</v>
       </c>
-      <c r="I612" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I612" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="613">
@@ -19446,10 +18224,8 @@
       <c r="H613" t="n">
         <v>36</v>
       </c>
-      <c r="I613" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I613" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="614">
@@ -19477,10 +18253,8 @@
       <c r="H614" t="n">
         <v>40</v>
       </c>
-      <c r="I614" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I614" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="615">
@@ -19508,10 +18282,8 @@
       <c r="H615" t="n">
         <v>26</v>
       </c>
-      <c r="I615" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I615" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="616">
@@ -19539,10 +18311,8 @@
       <c r="H616" t="n">
         <v>50</v>
       </c>
-      <c r="I616" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I616" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="617">
@@ -19570,10 +18340,8 @@
       <c r="H617" t="n">
         <v>27</v>
       </c>
-      <c r="I617" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I617" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="618">
@@ -19601,10 +18369,8 @@
       <c r="H618" t="n">
         <v>30</v>
       </c>
-      <c r="I618" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I618" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="619">
@@ -19632,10 +18398,8 @@
       <c r="H619" t="n">
         <v>23</v>
       </c>
-      <c r="I619" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I619" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="620">
@@ -19663,10 +18427,8 @@
       <c r="H620" t="n">
         <v>50</v>
       </c>
-      <c r="I620" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I620" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="621">
@@ -19694,10 +18456,8 @@
       <c r="H621" t="n">
         <v>24</v>
       </c>
-      <c r="I621" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I621" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="622">
@@ -19725,10 +18485,8 @@
       <c r="H622" t="n">
         <v>28</v>
       </c>
-      <c r="I622" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I622" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="623">
@@ -19756,10 +18514,8 @@
       <c r="H623" t="n">
         <v>28</v>
       </c>
-      <c r="I623" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I623" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="624">
@@ -19787,10 +18543,8 @@
       <c r="H624" t="n">
         <v>45</v>
       </c>
-      <c r="I624" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I624" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="625">
@@ -19818,10 +18572,8 @@
       <c r="H625" t="n">
         <v>21</v>
       </c>
-      <c r="I625" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I625" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="626">
@@ -19849,10 +18601,8 @@
       <c r="H626" t="n">
         <v>21</v>
       </c>
-      <c r="I626" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I626" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="627">
@@ -19880,10 +18630,8 @@
       <c r="H627" t="n">
         <v>29</v>
       </c>
-      <c r="I627" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I627" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="628">
@@ -19911,10 +18659,8 @@
       <c r="H628" t="n">
         <v>21</v>
       </c>
-      <c r="I628" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I628" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="629">
@@ -19942,10 +18688,8 @@
       <c r="H629" t="n">
         <v>21</v>
       </c>
-      <c r="I629" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I629" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="630">
@@ -19973,10 +18717,8 @@
       <c r="H630" t="n">
         <v>45</v>
       </c>
-      <c r="I630" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I630" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="631">
@@ -20004,10 +18746,8 @@
       <c r="H631" t="n">
         <v>21</v>
       </c>
-      <c r="I631" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I631" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="632">
@@ -20035,10 +18775,8 @@
       <c r="H632" t="n">
         <v>34</v>
       </c>
-      <c r="I632" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I632" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="633">
@@ -20066,10 +18804,8 @@
       <c r="H633" t="n">
         <v>24</v>
       </c>
-      <c r="I633" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I633" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="634">
@@ -20097,10 +18833,8 @@
       <c r="H634" t="n">
         <v>23</v>
       </c>
-      <c r="I634" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I634" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="635">
@@ -20128,10 +18862,8 @@
       <c r="H635" t="n">
         <v>22</v>
       </c>
-      <c r="I635" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I635" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="636">
@@ -20159,10 +18891,8 @@
       <c r="H636" t="n">
         <v>31</v>
       </c>
-      <c r="I636" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I636" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="637">
@@ -20190,10 +18920,8 @@
       <c r="H637" t="n">
         <v>38</v>
       </c>
-      <c r="I637" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I637" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="638">
@@ -20221,10 +18949,8 @@
       <c r="H638" t="n">
         <v>48</v>
       </c>
-      <c r="I638" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I638" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="639">
@@ -20252,10 +18978,8 @@
       <c r="H639" t="n">
         <v>23</v>
       </c>
-      <c r="I639" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I639" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="640">
@@ -20283,10 +19007,8 @@
       <c r="H640" t="n">
         <v>32</v>
       </c>
-      <c r="I640" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I640" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="641">
@@ -20314,10 +19036,8 @@
       <c r="H641" t="n">
         <v>28</v>
       </c>
-      <c r="I641" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I641" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="642">
@@ -20345,10 +19065,8 @@
       <c r="H642" t="n">
         <v>27</v>
       </c>
-      <c r="I642" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I642" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="643">
@@ -20376,10 +19094,8 @@
       <c r="H643" t="n">
         <v>24</v>
       </c>
-      <c r="I643" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I643" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="644">
@@ -20407,10 +19123,8 @@
       <c r="H644" t="n">
         <v>50</v>
       </c>
-      <c r="I644" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I644" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="645">
@@ -20438,10 +19152,8 @@
       <c r="H645" t="n">
         <v>31</v>
       </c>
-      <c r="I645" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I645" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="646">
@@ -20469,10 +19181,8 @@
       <c r="H646" t="n">
         <v>27</v>
       </c>
-      <c r="I646" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I646" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="647">
@@ -20500,10 +19210,8 @@
       <c r="H647" t="n">
         <v>30</v>
       </c>
-      <c r="I647" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I647" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="648">
@@ -20531,10 +19239,8 @@
       <c r="H648" t="n">
         <v>33</v>
       </c>
-      <c r="I648" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I648" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="649">
@@ -20562,10 +19268,8 @@
       <c r="H649" t="n">
         <v>22</v>
       </c>
-      <c r="I649" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I649" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="650">
@@ -20593,10 +19297,8 @@
       <c r="H650" t="n">
         <v>42</v>
       </c>
-      <c r="I650" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I650" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="651">
@@ -20624,10 +19326,8 @@
       <c r="H651" t="n">
         <v>23</v>
       </c>
-      <c r="I651" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I651" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="652">
@@ -20655,10 +19355,8 @@
       <c r="H652" t="n">
         <v>23</v>
       </c>
-      <c r="I652" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I652" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="653">
@@ -20686,10 +19384,8 @@
       <c r="H653" t="n">
         <v>27</v>
       </c>
-      <c r="I653" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I653" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="654">
@@ -20717,10 +19413,8 @@
       <c r="H654" t="n">
         <v>28</v>
       </c>
-      <c r="I654" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I654" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="655">
@@ -20748,10 +19442,8 @@
       <c r="H655" t="n">
         <v>27</v>
       </c>
-      <c r="I655" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I655" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="656">
@@ -20779,10 +19471,8 @@
       <c r="H656" t="n">
         <v>22</v>
       </c>
-      <c r="I656" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I656" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="657">
@@ -20810,10 +19500,8 @@
       <c r="H657" t="n">
         <v>25</v>
       </c>
-      <c r="I657" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I657" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="658">
@@ -20841,10 +19529,8 @@
       <c r="H658" t="n">
         <v>22</v>
       </c>
-      <c r="I658" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I658" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="659">
@@ -20872,10 +19558,8 @@
       <c r="H659" t="n">
         <v>41</v>
       </c>
-      <c r="I659" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I659" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="660">
@@ -20903,10 +19587,8 @@
       <c r="H660" t="n">
         <v>51</v>
       </c>
-      <c r="I660" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I660" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="661">
@@ -20934,10 +19616,8 @@
       <c r="H661" t="n">
         <v>27</v>
       </c>
-      <c r="I661" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I661" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="662">
@@ -20965,10 +19645,8 @@
       <c r="H662" t="n">
         <v>54</v>
       </c>
-      <c r="I662" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I662" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="663">
@@ -20996,10 +19674,8 @@
       <c r="H663" t="n">
         <v>22</v>
       </c>
-      <c r="I663" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I663" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="664">
@@ -21027,10 +19703,8 @@
       <c r="H664" t="n">
         <v>43</v>
       </c>
-      <c r="I664" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I664" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="665">
@@ -21058,10 +19732,8 @@
       <c r="H665" t="n">
         <v>40</v>
       </c>
-      <c r="I665" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I665" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="666">
@@ -21089,10 +19761,8 @@
       <c r="H666" t="n">
         <v>40</v>
       </c>
-      <c r="I666" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I666" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="667">
@@ -21120,10 +19790,8 @@
       <c r="H667" t="n">
         <v>24</v>
       </c>
-      <c r="I667" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I667" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="668">
@@ -21151,10 +19819,8 @@
       <c r="H668" t="n">
         <v>70</v>
       </c>
-      <c r="I668" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I668" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="669">
@@ -21182,10 +19848,8 @@
       <c r="H669" t="n">
         <v>40</v>
       </c>
-      <c r="I669" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I669" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="670">
@@ -21213,10 +19877,8 @@
       <c r="H670" t="n">
         <v>43</v>
       </c>
-      <c r="I670" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I670" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="671">
@@ -21244,10 +19906,8 @@
       <c r="H671" t="n">
         <v>45</v>
       </c>
-      <c r="I671" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I671" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="672">
@@ -21275,10 +19935,8 @@
       <c r="H672" t="n">
         <v>49</v>
       </c>
-      <c r="I672" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I672" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="673">
@@ -21306,10 +19964,8 @@
       <c r="H673" t="n">
         <v>21</v>
       </c>
-      <c r="I673" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I673" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="674">
@@ -21337,10 +19993,8 @@
       <c r="H674" t="n">
         <v>47</v>
       </c>
-      <c r="I674" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I674" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="675">
@@ -21368,10 +20022,8 @@
       <c r="H675" t="n">
         <v>22</v>
       </c>
-      <c r="I675" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I675" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="676">
@@ -21399,10 +20051,8 @@
       <c r="H676" t="n">
         <v>68</v>
       </c>
-      <c r="I676" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I676" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="677">
@@ -21430,10 +20080,8 @@
       <c r="H677" t="n">
         <v>31</v>
       </c>
-      <c r="I677" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I677" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="678">
@@ -21461,10 +20109,8 @@
       <c r="H678" t="n">
         <v>53</v>
       </c>
-      <c r="I678" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I678" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="679">
@@ -21492,10 +20138,8 @@
       <c r="H679" t="n">
         <v>25</v>
       </c>
-      <c r="I679" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I679" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="680">
@@ -21523,10 +20167,8 @@
       <c r="H680" t="n">
         <v>25</v>
       </c>
-      <c r="I680" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I680" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="681">
@@ -21554,10 +20196,8 @@
       <c r="H681" t="n">
         <v>23</v>
       </c>
-      <c r="I681" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I681" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="682">
@@ -21585,10 +20225,8 @@
       <c r="H682" t="n">
         <v>22</v>
       </c>
-      <c r="I682" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I682" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="683">
@@ -21616,10 +20254,8 @@
       <c r="H683" t="n">
         <v>26</v>
       </c>
-      <c r="I683" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I683" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="684">
@@ -21647,10 +20283,8 @@
       <c r="H684" t="n">
         <v>22</v>
       </c>
-      <c r="I684" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I684" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="685">
@@ -21678,10 +20312,8 @@
       <c r="H685" t="n">
         <v>27</v>
       </c>
-      <c r="I685" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I685" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="686">
@@ -21709,10 +20341,8 @@
       <c r="H686" t="n">
         <v>69</v>
       </c>
-      <c r="I686" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I686" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="687">
@@ -21740,10 +20370,8 @@
       <c r="H687" t="n">
         <v>25</v>
       </c>
-      <c r="I687" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I687" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="688">
@@ -21771,10 +20399,8 @@
       <c r="H688" t="n">
         <v>22</v>
       </c>
-      <c r="I688" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I688" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="689">
@@ -21802,10 +20428,8 @@
       <c r="H689" t="n">
         <v>29</v>
       </c>
-      <c r="I689" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I689" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="690">
@@ -21833,10 +20457,8 @@
       <c r="H690" t="n">
         <v>23</v>
       </c>
-      <c r="I690" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I690" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="691">
@@ -21864,10 +20486,8 @@
       <c r="H691" t="n">
         <v>46</v>
       </c>
-      <c r="I691" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I691" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="692">
@@ -21895,10 +20515,8 @@
       <c r="H692" t="n">
         <v>34</v>
       </c>
-      <c r="I692" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I692" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="693">
@@ -21926,10 +20544,8 @@
       <c r="H693" t="n">
         <v>44</v>
       </c>
-      <c r="I693" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I693" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="694">
@@ -21957,10 +20573,8 @@
       <c r="H694" t="n">
         <v>23</v>
       </c>
-      <c r="I694" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I694" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="695">
@@ -21988,10 +20602,8 @@
       <c r="H695" t="n">
         <v>43</v>
       </c>
-      <c r="I695" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I695" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="696">
@@ -22019,10 +20631,8 @@
       <c r="H696" t="n">
         <v>25</v>
       </c>
-      <c r="I696" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I696" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="697">
@@ -22050,10 +20660,8 @@
       <c r="H697" t="n">
         <v>43</v>
       </c>
-      <c r="I697" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I697" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="698">
@@ -22081,10 +20689,8 @@
       <c r="H698" t="n">
         <v>31</v>
       </c>
-      <c r="I698" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I698" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="699">
@@ -22112,10 +20718,8 @@
       <c r="H699" t="n">
         <v>22</v>
       </c>
-      <c r="I699" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I699" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="700">
@@ -22143,10 +20747,8 @@
       <c r="H700" t="n">
         <v>28</v>
       </c>
-      <c r="I700" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I700" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="701">
@@ -22174,10 +20776,8 @@
       <c r="H701" t="n">
         <v>26</v>
       </c>
-      <c r="I701" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I701" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="702">
@@ -22205,10 +20805,8 @@
       <c r="H702" t="n">
         <v>26</v>
       </c>
-      <c r="I702" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I702" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="703">
@@ -22236,10 +20834,8 @@
       <c r="H703" t="n">
         <v>49</v>
       </c>
-      <c r="I703" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I703" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="704">
@@ -22267,10 +20863,8 @@
       <c r="H704" t="n">
         <v>52</v>
       </c>
-      <c r="I704" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I704" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="705">
@@ -22298,10 +20892,8 @@
       <c r="H705" t="n">
         <v>41</v>
       </c>
-      <c r="I705" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I705" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="706">
@@ -22329,10 +20921,8 @@
       <c r="H706" t="n">
         <v>27</v>
       </c>
-      <c r="I706" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I706" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="707">
@@ -22360,10 +20950,8 @@
       <c r="H707" t="n">
         <v>28</v>
       </c>
-      <c r="I707" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I707" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="708">
@@ -22391,10 +20979,8 @@
       <c r="H708" t="n">
         <v>30</v>
       </c>
-      <c r="I708" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I708" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="709">
@@ -22422,10 +21008,8 @@
       <c r="H709" t="n">
         <v>22</v>
       </c>
-      <c r="I709" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I709" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="710">
@@ -22453,10 +21037,8 @@
       <c r="H710" t="n">
         <v>45</v>
       </c>
-      <c r="I710" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I710" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="711">
@@ -22484,10 +21066,8 @@
       <c r="H711" t="n">
         <v>23</v>
       </c>
-      <c r="I711" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I711" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="712">
@@ -22515,10 +21095,8 @@
       <c r="H712" t="n">
         <v>24</v>
       </c>
-      <c r="I712" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I712" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="713">
@@ -22546,10 +21124,8 @@
       <c r="H713" t="n">
         <v>40</v>
       </c>
-      <c r="I713" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I713" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="714">
@@ -22577,10 +21153,8 @@
       <c r="H714" t="n">
         <v>38</v>
       </c>
-      <c r="I714" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I714" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="715">
@@ -22608,10 +21182,8 @@
       <c r="H715" t="n">
         <v>21</v>
       </c>
-      <c r="I715" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I715" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="716">
@@ -22639,10 +21211,8 @@
       <c r="H716" t="n">
         <v>32</v>
       </c>
-      <c r="I716" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I716" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="717">
@@ -22670,10 +21240,8 @@
       <c r="H717" t="n">
         <v>34</v>
       </c>
-      <c r="I717" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I717" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="718">
@@ -22701,10 +21269,8 @@
       <c r="H718" t="n">
         <v>31</v>
       </c>
-      <c r="I718" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I718" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="719">
@@ -22732,10 +21298,8 @@
       <c r="H719" t="n">
         <v>56</v>
       </c>
-      <c r="I719" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I719" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="720">
@@ -22763,10 +21327,8 @@
       <c r="H720" t="n">
         <v>24</v>
       </c>
-      <c r="I720" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I720" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="721">
@@ -22794,10 +21356,8 @@
       <c r="H721" t="n">
         <v>52</v>
       </c>
-      <c r="I721" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I721" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="722">
@@ -22825,10 +21385,8 @@
       <c r="H722" t="n">
         <v>34</v>
       </c>
-      <c r="I722" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I722" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="723">
@@ -22856,10 +21414,8 @@
       <c r="H723" t="n">
         <v>21</v>
       </c>
-      <c r="I723" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I723" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="724">
@@ -22887,10 +21443,8 @@
       <c r="H724" t="n">
         <v>42</v>
       </c>
-      <c r="I724" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I724" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="725">
@@ -22918,10 +21472,8 @@
       <c r="H725" t="n">
         <v>42</v>
       </c>
-      <c r="I725" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I725" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="726">
@@ -22949,10 +21501,8 @@
       <c r="H726" t="n">
         <v>45</v>
       </c>
-      <c r="I726" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I726" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="727">
@@ -22980,10 +21530,8 @@
       <c r="H727" t="n">
         <v>38</v>
       </c>
-      <c r="I727" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I727" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="728">
@@ -23011,10 +21559,8 @@
       <c r="H728" t="n">
         <v>25</v>
       </c>
-      <c r="I728" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I728" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="729">
@@ -23042,10 +21588,8 @@
       <c r="H729" t="n">
         <v>22</v>
       </c>
-      <c r="I729" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I729" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="730">
@@ -23073,10 +21617,8 @@
       <c r="H730" t="n">
         <v>22</v>
       </c>
-      <c r="I730" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I730" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="731">
@@ -23104,10 +21646,8 @@
       <c r="H731" t="n">
         <v>22</v>
       </c>
-      <c r="I731" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I731" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="732">
@@ -23135,10 +21675,8 @@
       <c r="H732" t="n">
         <v>34</v>
       </c>
-      <c r="I732" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I732" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="733">
@@ -23166,10 +21704,8 @@
       <c r="H733" t="n">
         <v>22</v>
       </c>
-      <c r="I733" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I733" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="734">
@@ -23197,10 +21733,8 @@
       <c r="H734" t="n">
         <v>24</v>
       </c>
-      <c r="I734" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I734" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="735">
@@ -23228,10 +21762,8 @@
       <c r="H735" t="n">
         <v>22</v>
       </c>
-      <c r="I735" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I735" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="736">
@@ -23259,10 +21791,8 @@
       <c r="H736" t="n">
         <v>53</v>
       </c>
-      <c r="I736" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I736" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="737">
@@ -23290,10 +21820,8 @@
       <c r="H737" t="n">
         <v>28</v>
       </c>
-      <c r="I737" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I737" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="738">
@@ -23321,10 +21849,8 @@
       <c r="H738" t="n">
         <v>21</v>
       </c>
-      <c r="I738" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I738" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="739">
@@ -23352,10 +21878,8 @@
       <c r="H739" t="n">
         <v>42</v>
       </c>
-      <c r="I739" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I739" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="740">
@@ -23383,10 +21907,8 @@
       <c r="H740" t="n">
         <v>21</v>
       </c>
-      <c r="I740" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I740" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="741">
@@ -23414,10 +21936,8 @@
       <c r="H741" t="n">
         <v>42</v>
       </c>
-      <c r="I741" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I741" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="742">
@@ -23445,10 +21965,8 @@
       <c r="H742" t="n">
         <v>48</v>
       </c>
-      <c r="I742" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I742" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="743">
@@ -23476,10 +21994,8 @@
       <c r="H743" t="n">
         <v>26</v>
       </c>
-      <c r="I743" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I743" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="744">
@@ -23507,10 +22023,8 @@
       <c r="H744" t="n">
         <v>22</v>
       </c>
-      <c r="I744" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I744" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="745">
@@ -23538,10 +22052,8 @@
       <c r="H745" t="n">
         <v>45</v>
       </c>
-      <c r="I745" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I745" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="746">
@@ -23569,10 +22081,8 @@
       <c r="H746" t="n">
         <v>39</v>
       </c>
-      <c r="I746" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I746" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="747">
@@ -23600,10 +22110,8 @@
       <c r="H747" t="n">
         <v>46</v>
       </c>
-      <c r="I747" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I747" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="748">
@@ -23631,10 +22139,8 @@
       <c r="H748" t="n">
         <v>27</v>
       </c>
-      <c r="I748" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I748" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="749">
@@ -23662,10 +22168,8 @@
       <c r="H749" t="n">
         <v>32</v>
       </c>
-      <c r="I749" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I749" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="750">
@@ -23693,10 +22197,8 @@
       <c r="H750" t="n">
         <v>36</v>
       </c>
-      <c r="I750" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I750" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="751">
@@ -23724,10 +22226,8 @@
       <c r="H751" t="n">
         <v>50</v>
       </c>
-      <c r="I751" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I751" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="752">
@@ -23755,10 +22255,8 @@
       <c r="H752" t="n">
         <v>22</v>
       </c>
-      <c r="I752" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I752" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="753">
@@ -23786,10 +22284,8 @@
       <c r="H753" t="n">
         <v>28</v>
       </c>
-      <c r="I753" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I753" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="754">
@@ -23817,10 +22313,8 @@
       <c r="H754" t="n">
         <v>25</v>
       </c>
-      <c r="I754" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I754" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="755">
@@ -23848,10 +22342,8 @@
       <c r="H755" t="n">
         <v>26</v>
       </c>
-      <c r="I755" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I755" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="756">
@@ -23879,10 +22371,8 @@
       <c r="H756" t="n">
         <v>45</v>
       </c>
-      <c r="I756" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I756" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="757">
@@ -23910,10 +22400,8 @@
       <c r="H757" t="n">
         <v>37</v>
       </c>
-      <c r="I757" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I757" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="758">
@@ -23941,10 +22429,8 @@
       <c r="H758" t="n">
         <v>39</v>
       </c>
-      <c r="I758" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I758" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="759">
@@ -23972,10 +22458,8 @@
       <c r="H759" t="n">
         <v>52</v>
       </c>
-      <c r="I759" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I759" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="760">
@@ -24003,10 +22487,8 @@
       <c r="H760" t="n">
         <v>26</v>
       </c>
-      <c r="I760" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I760" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="761">
@@ -24034,10 +22516,8 @@
       <c r="H761" t="n">
         <v>66</v>
       </c>
-      <c r="I761" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I761" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="762">
@@ -24065,10 +22545,8 @@
       <c r="H762" t="n">
         <v>22</v>
       </c>
-      <c r="I762" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I762" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="763">
@@ -24096,10 +22574,8 @@
       <c r="H763" t="n">
         <v>43</v>
       </c>
-      <c r="I763" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I763" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="764">
@@ -24127,10 +22603,8 @@
       <c r="H764" t="n">
         <v>33</v>
       </c>
-      <c r="I764" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I764" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="765">
@@ -24158,10 +22632,8 @@
       <c r="H765" t="n">
         <v>63</v>
       </c>
-      <c r="I765" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I765" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="766">
@@ -24189,10 +22661,8 @@
       <c r="H766" t="n">
         <v>27</v>
       </c>
-      <c r="I766" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I766" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="767">
@@ -24220,10 +22690,8 @@
       <c r="H767" t="n">
         <v>30</v>
       </c>
-      <c r="I767" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I767" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="768">
@@ -24251,10 +22719,8 @@
       <c r="H768" t="n">
         <v>47</v>
       </c>
-      <c r="I768" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="I768" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="769">
@@ -24282,10 +22748,8 @@
       <c r="H769" t="n">
         <v>23</v>
       </c>
-      <c r="I769" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
+      <c r="I769" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
